--- a/source/input/configuration/default-ts-ml-Tx_var.xlsx
+++ b/source/input/configuration/default-ts-ml-Tx_var.xlsx
@@ -48,9 +48,6 @@
     <t>zB (m)</t>
   </si>
   <si>
-    <t>Tx_th (deg)</t>
-  </si>
-  <si>
     <t>Tx_ph (deg)</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>DoY</t>
+  </si>
+  <si>
+    <t>Tx_el (deg)</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,28 +409,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="C2" s="1">
         <v>200</v>
@@ -464,7 +464,7 @@
         <v>146.02083333337214</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>0.2658251150424194</v>
@@ -484,7 +484,7 @@
         <v>146.04166666662786</v>
       </c>
       <c r="B4" s="1">
-        <v>40.1</v>
+        <v>49.9</v>
       </c>
       <c r="E4" s="1">
         <v>0.26450953148091932</v>
@@ -504,7 +504,7 @@
         <v>146.0625</v>
       </c>
       <c r="B5" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E5" s="1">
         <v>0.26120265099760026</v>
@@ -524,7 +524,7 @@
         <v>146.08333333337214</v>
       </c>
       <c r="B6" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E6" s="1">
         <v>0.2618660944593742</v>
@@ -544,7 +544,7 @@
         <v>146.10416666662786</v>
       </c>
       <c r="B7" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E7" s="1">
         <v>0.26263879959258268</v>
@@ -564,7 +564,7 @@
         <v>146.125</v>
       </c>
       <c r="B8" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E8" s="1">
         <v>0.26252849939568718</v>
@@ -584,7 +584,7 @@
         <v>146.14583333337214</v>
       </c>
       <c r="B9" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E9" s="1">
         <v>0.26241817048599647</v>
@@ -604,7 +604,7 @@
         <v>146.16666666662786</v>
       </c>
       <c r="B10" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E10" s="1">
         <v>0.26241817048599647</v>
@@ -624,7 +624,7 @@
         <v>146.1875</v>
       </c>
       <c r="B11" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
         <v>0.26230781284107585</v>
@@ -644,7 +644,7 @@
         <v>146.20833333337214</v>
       </c>
       <c r="B12" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E12" s="1">
         <v>0.26296952813040908</v>
@@ -664,7 +664,7 @@
         <v>146.22916666662786</v>
       </c>
       <c r="B13" s="1">
-        <v>41.3</v>
+        <v>48.7</v>
       </c>
       <c r="E13" s="1">
         <v>0.26296952813040908</v>
@@ -684,7 +684,7 @@
         <v>146.25</v>
       </c>
       <c r="B14" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E14" s="1">
         <v>0.26285931393758166</v>
@@ -704,7 +704,7 @@
         <v>146.27083333337214</v>
       </c>
       <c r="B15" s="1">
-        <v>42.6</v>
+        <v>47.4</v>
       </c>
       <c r="E15" s="1">
         <v>0.26352017018969331</v>
@@ -724,7 +724,7 @@
         <v>146.29166666662786</v>
       </c>
       <c r="B16" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E16" s="1">
         <v>0.26087053828991902</v>
@@ -744,7 +744,7 @@
         <v>146.3125</v>
       </c>
       <c r="B17" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E17" s="1">
         <v>0.26285931393758166</v>
@@ -764,7 +764,7 @@
         <v>146.33333333337214</v>
       </c>
       <c r="B18" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E18" s="1">
         <v>0.26219742643846133</v>
@@ -784,7 +784,7 @@
         <v>146.35416666662786</v>
       </c>
       <c r="B19" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E19" s="1">
         <v>0.26407009944282639</v>
@@ -804,7 +804,7 @@
         <v>146.375</v>
       </c>
       <c r="B20" s="1">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="E20" s="1">
         <v>0.26363021297620154</v>
@@ -824,7 +824,7 @@
         <v>146.39583333337214</v>
       </c>
       <c r="B21" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E21" s="1">
         <v>0.26418000000000003</v>
@@ -844,7 +844,7 @@
         <v>146.41666666662786</v>
       </c>
       <c r="B22" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E22" s="1">
         <v>0.26637208045417221</v>
@@ -864,7 +864,7 @@
         <v>146.4375</v>
       </c>
       <c r="B23" s="1">
-        <v>46.5</v>
+        <v>43.5</v>
       </c>
       <c r="E23" s="1">
         <v>0.2677909275433355</v>
@@ -884,7 +884,7 @@
         <v>146.45833333337214</v>
       </c>
       <c r="B24" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E24" s="1">
         <v>0.26648138961390078</v>
@@ -904,7 +904,7 @@
         <v>146.47916666662786</v>
       </c>
       <c r="B25" s="1">
-        <v>48.3</v>
+        <v>41.7</v>
       </c>
       <c r="E25" s="1">
         <v>0.26735485941489101</v>
@@ -924,7 +924,7 @@
         <v>146.5</v>
       </c>
       <c r="B26" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E26" s="1">
         <v>0.26898783622129036</v>
@@ -944,7 +944,7 @@
         <v>146.52083333337214</v>
       </c>
       <c r="B27" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E27" s="1">
         <v>0.26648138961390078</v>
@@ -964,7 +964,7 @@
         <v>146.54166666662786</v>
       </c>
       <c r="B28" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E28" s="1">
         <v>0.26877046422650325</v>
@@ -984,7 +984,7 @@
         <v>146.5625</v>
       </c>
       <c r="B29" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E29" s="1">
         <v>0.2698562282978178</v>
@@ -1004,7 +1004,7 @@
         <v>146.58333333337214</v>
       </c>
       <c r="B30" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E30" s="1">
         <v>0.26724577305114094</v>
@@ -1024,7 +1024,7 @@
         <v>146.60416666662786</v>
       </c>
       <c r="B31" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E31" s="1">
         <v>0.26461931865084493</v>
@@ -1044,7 +1044,7 @@
         <v>146.625</v>
       </c>
       <c r="B32" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E32" s="1">
         <v>0.26527744830218108</v>
@@ -1064,7 +1064,7 @@
         <v>146.64583333337214</v>
       </c>
       <c r="B33" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E33" s="1">
         <v>0.2677909275433355</v>
@@ -1084,7 +1084,7 @@
         <v>146.66666666662786</v>
       </c>
       <c r="B34" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E34" s="1">
         <v>0.26659067084945892</v>
@@ -1104,7 +1104,7 @@
         <v>146.6875</v>
       </c>
       <c r="B35" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E35" s="1">
         <v>0.26483880813650379</v>
@@ -1124,7 +1124,7 @@
         <v>146.70833333337214</v>
       </c>
       <c r="B36" s="1">
-        <v>48.1</v>
+        <v>41.9</v>
       </c>
       <c r="E36" s="1">
         <v>0.26439971599708634</v>
@@ -1144,7 +1144,7 @@
         <v>146.72916666662786</v>
       </c>
       <c r="B37" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E37" s="1">
         <v>0.26450953148091932</v>
@@ -1164,7 +1164,7 @@
         <v>146.75</v>
       </c>
       <c r="B38" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1">
         <v>0.25965054994619025</v>
@@ -1184,7 +1184,7 @@
         <v>146.77083333337214</v>
       </c>
       <c r="B39" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E39" s="1">
         <v>0.26131329723519114</v>
@@ -1204,7 +1204,7 @@
         <v>146.79166666662786</v>
       </c>
       <c r="B40" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E40" s="1">
         <v>0.25931721172581607</v>
@@ -1224,7 +1224,7 @@
         <v>146.8125</v>
       </c>
       <c r="B41" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E41" s="1">
         <v>0.25798120873704794</v>
@@ -1244,7 +1244,7 @@
         <v>146.83333333337214</v>
       </c>
       <c r="B42" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1">
         <v>0.25864974151676767</v>
@@ -1264,7 +1264,7 @@
         <v>146.85416666662786</v>
       </c>
       <c r="B43" s="1">
-        <v>43.9</v>
+        <v>46.1</v>
       </c>
       <c r="E43" s="1">
         <v>0.25853839331342721</v>
@@ -1284,7 +1284,7 @@
         <v>146.875</v>
       </c>
       <c r="B44" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E44" s="1">
         <v>0.25831560826546945</v>
@@ -1304,7 +1304,7 @@
         <v>146.89583333337214</v>
       </c>
       <c r="B45" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E45" s="1">
         <v>0.25831560826546945</v>
@@ -1324,7 +1324,7 @@
         <v>146.91666666662786</v>
       </c>
       <c r="B46" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E46" s="1">
         <v>0.25820417137377782</v>
@@ -1344,7 +1344,7 @@
         <v>146.9375</v>
       </c>
       <c r="B47" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E47" s="1">
         <v>0.3207473176981695</v>
@@ -1364,7 +1364,7 @@
         <v>146.95833333337214</v>
       </c>
       <c r="B48" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E48" s="1">
         <v>0.31724288846455551</v>
@@ -1384,7 +1384,7 @@
         <v>146.97916666662786</v>
       </c>
       <c r="B49" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E49" s="1">
         <v>0.31714517679667337</v>
@@ -1404,7 +1404,7 @@
         <v>147</v>
       </c>
       <c r="B50" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E50" s="1">
         <v>0.32055329582768238</v>
@@ -1424,7 +1424,7 @@
         <v>147.02083333337214</v>
       </c>
       <c r="B51" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E51" s="1">
         <v>0.32045625558989888</v>
@@ -1444,7 +1444,7 @@
         <v>147.04166666662786</v>
       </c>
       <c r="B52" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E52" s="1">
         <v>0.32045625558989888</v>
@@ -1464,7 +1464,7 @@
         <v>147.0625</v>
       </c>
       <c r="B53" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E53" s="1">
         <v>0.32035919580134659</v>
@@ -1484,7 +1484,7 @@
         <v>147.08333333337214</v>
       </c>
       <c r="B54" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E54" s="1">
         <v>0.32035919580134659</v>
@@ -1504,7 +1504,7 @@
         <v>147.10416666662786</v>
       </c>
       <c r="B55" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E55" s="1">
         <v>0.32026211645020414</v>
@@ -1524,7 +1524,7 @@
         <v>147.125</v>
       </c>
       <c r="B56" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E56" s="1">
         <v>0.32026211645020414</v>
@@ -1544,7 +1544,7 @@
         <v>147.14583333337214</v>
       </c>
       <c r="B57" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E57" s="1">
         <v>0.31812139731138406</v>
@@ -1564,7 +1564,7 @@
         <v>147.16666666662786</v>
       </c>
       <c r="B58" s="1">
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E58" s="1">
         <v>0.31802386473030947</v>
@@ -1584,7 +1584,7 @@
         <v>147.1875</v>
       </c>
       <c r="B59" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E59" s="1">
         <v>0.31802386473030947</v>
@@ -1604,7 +1604,7 @@
         <v>147.20833333337214</v>
       </c>
       <c r="B60" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E60" s="1">
         <v>0.3185113293785381</v>
@@ -1624,7 +1624,7 @@
         <v>147.22916666662786</v>
       </c>
       <c r="B61" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E61" s="1">
         <v>0.31841387607614602</v>
@@ -1644,7 +1644,7 @@
         <v>147.25</v>
       </c>
       <c r="B62" s="1">
-        <v>41.6</v>
+        <v>48.4</v>
       </c>
       <c r="E62" s="1">
         <v>0.31880357059701186</v>
@@ -1664,7 +1664,7 @@
         <v>147.27083333337214</v>
       </c>
       <c r="B63" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E63" s="1">
         <v>0.31870617662692635</v>
@@ -1684,7 +1684,7 @@
         <v>147.29166666662786</v>
       </c>
       <c r="B64" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E64" s="1">
         <v>0.31870617662692635</v>
@@ -1704,7 +1704,7 @@
         <v>147.3125</v>
       </c>
       <c r="B65" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E65" s="1">
         <v>0.31812139731138406</v>
@@ -1724,7 +1724,7 @@
         <v>147.33333333337214</v>
       </c>
       <c r="B66" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E66" s="1">
         <v>0.31812139731138406</v>
@@ -1744,7 +1744,7 @@
         <v>147.35416666662786</v>
       </c>
       <c r="B67" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E67" s="1">
         <v>0.31812139731138406</v>
@@ -1764,7 +1764,7 @@
         <v>147.375</v>
       </c>
       <c r="B68" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E68" s="1">
         <v>0.31821891005465047</v>
@@ -1784,7 +1784,7 @@
         <v>147.39583333337214</v>
       </c>
       <c r="B69" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E69" s="1">
         <v>0.31831640297220859</v>
@@ -1824,7 +1824,7 @@
         <v>147.4375</v>
       </c>
       <c r="B71" s="1">
-        <v>46.6</v>
+        <v>43.4</v>
       </c>
       <c r="E71" s="1">
         <v>0.31704744516930372</v>
@@ -1844,7 +1844,7 @@
         <v>147.45833333337214</v>
       </c>
       <c r="B72" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E72" s="1">
         <v>0.31724288846455551</v>
@@ -1864,7 +1864,7 @@
         <v>147.47916666662786</v>
       </c>
       <c r="B73" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E73" s="1">
         <v>0.3161669603229107</v>
@@ -1884,7 +1884,7 @@
         <v>147.5</v>
       </c>
       <c r="B74" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1">
         <v>0.31694969357021024</v>
@@ -1904,7 +1904,7 @@
         <v>147.52083333337214</v>
       </c>
       <c r="B75" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E75" s="1">
         <v>0.31351570940734463</v>
@@ -1924,7 +1924,7 @@
         <v>147.54166666662786</v>
       </c>
       <c r="B76" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E76" s="1">
         <v>0.31440110153330519</v>
@@ -1944,7 +1944,7 @@
         <v>147.5625</v>
       </c>
       <c r="B77" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E77" s="1">
         <v>0.31094858549285248</v>
@@ -1964,7 +1964,7 @@
         <v>147.58333333337214</v>
       </c>
       <c r="B78" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E78" s="1">
         <v>0.31312167140635555</v>
@@ -1984,7 +1984,7 @@
         <v>147.60416666662786</v>
       </c>
       <c r="B79" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E79" s="1">
         <v>0.3133187312991344</v>
@@ -2004,7 +2004,7 @@
         <v>147.625</v>
       </c>
       <c r="B80" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E80" s="1">
         <v>0.31371260583272942</v>
@@ -2024,7 +2024,7 @@
         <v>147.64583333337214</v>
       </c>
       <c r="B81" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E81" s="1">
         <v>0.31262866319732124</v>
@@ -2044,7 +2044,7 @@
         <v>147.66666666662786</v>
       </c>
       <c r="B82" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E82" s="1">
         <v>0.31065148034517276</v>
@@ -2064,7 +2064,7 @@
         <v>147.6875</v>
       </c>
       <c r="B83" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E83" s="1">
         <v>0.30776976208235801</v>
@@ -2084,7 +2084,7 @@
         <v>147.70833333337214</v>
       </c>
       <c r="B84" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E84" s="1">
         <v>0.30876545363385294</v>
@@ -2104,7 +2104,7 @@
         <v>147.72916666662786</v>
       </c>
       <c r="B85" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E85" s="1">
         <v>0.30426807257371075</v>
@@ -2124,7 +2124,7 @@
         <v>147.75</v>
       </c>
       <c r="B86" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E86" s="1">
         <v>0.30073984535968318</v>
@@ -2144,7 +2144,7 @@
         <v>147.77083333337214</v>
       </c>
       <c r="B87" s="1">
-        <v>46.6</v>
+        <v>43.4</v>
       </c>
       <c r="E87" s="1">
         <v>0.29871156583286035</v>
@@ -2164,7 +2164,7 @@
         <v>147.79166666662786</v>
       </c>
       <c r="B88" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E88" s="1">
         <v>0.29881319216036389</v>
@@ -2184,7 +2184,7 @@
         <v>147.8125</v>
       </c>
       <c r="B89" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E89" s="1">
         <v>0.29524281080748604</v>
@@ -2204,7 +2204,7 @@
         <v>147.83333333337214</v>
       </c>
       <c r="B90" s="1">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="E90" s="1">
         <v>0.29298420872841263</v>
@@ -2224,7 +2224,7 @@
         <v>147.85416666662786</v>
       </c>
       <c r="B91" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E91" s="1">
         <v>0.29432019050959535</v>
@@ -2244,7 +2244,7 @@
         <v>147.875</v>
       </c>
       <c r="B92" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E92" s="1">
         <v>0.29267534690773678</v>
@@ -2264,7 +2264,7 @@
         <v>147.89583333337214</v>
       </c>
       <c r="B93" s="1">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="E93" s="1">
         <v>0.28957509201551596</v>
@@ -2284,7 +2284,7 @@
         <v>147.9375</v>
       </c>
       <c r="B94" s="1">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E94" s="1">
         <v>0.28988607613710776</v>
@@ -2304,7 +2304,7 @@
         <v>147.95833333337214</v>
       </c>
       <c r="B95" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E95" s="1">
         <v>0.28843297710975113</v>
@@ -2324,7 +2324,7 @@
         <v>147.97916666662786</v>
       </c>
       <c r="B96" s="1">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
       <c r="E96" s="1">
         <v>0.28832900462492406</v>
@@ -2344,7 +2344,7 @@
         <v>148.02083333337214</v>
       </c>
       <c r="B97" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E97" s="1">
         <v>0.28874475044155329</v>
@@ -2364,7 +2364,7 @@
         <v>148.0625</v>
       </c>
       <c r="B98" s="1">
-        <v>39.200000000000003</v>
+        <v>50.8</v>
       </c>
       <c r="E98" s="1">
         <v>0.2892638932493371</v>
@@ -2384,7 +2384,7 @@
         <v>148.08333333337214</v>
       </c>
       <c r="B99" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E99" s="1">
         <v>0.28916011255159979</v>
@@ -2404,7 +2404,7 @@
         <v>148.10416666662786</v>
       </c>
       <c r="B100" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E100" s="1">
         <v>0.28707945425721726</v>
@@ -2424,7 +2424,7 @@
         <v>148.125</v>
       </c>
       <c r="B101" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E101" s="1">
         <v>0.28707945425721726</v>
@@ -2444,7 +2444,7 @@
         <v>148.14583333337214</v>
       </c>
       <c r="B102" s="1">
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E102" s="1">
         <v>0.28697516783779137</v>
@@ -2464,7 +2464,7 @@
         <v>148.16666666662786</v>
       </c>
       <c r="B103" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E103" s="1">
         <v>0.28760052294467198</v>
@@ -2484,7 +2484,7 @@
         <v>148.1875</v>
       </c>
       <c r="B104" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E104" s="1">
         <v>0.28749635760554026</v>
@@ -2504,7 +2504,7 @@
         <v>148.22916666662786</v>
       </c>
       <c r="B105" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E105" s="1">
         <v>0.28739216808408863</v>
@@ -2524,7 +2524,7 @@
         <v>148.25</v>
       </c>
       <c r="B106" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E106" s="1">
         <v>0.28530327327506233</v>
@@ -2544,7 +2544,7 @@
         <v>148.27083333337214</v>
       </c>
       <c r="B107" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E107" s="1">
         <v>0.28864085000141959</v>
@@ -2564,7 +2564,7 @@
         <v>148.29166666662786</v>
       </c>
       <c r="B108" s="1">
-        <v>41.4</v>
+        <v>48.6</v>
       </c>
       <c r="E108" s="1">
         <v>0.28864085000141959</v>
@@ -2584,7 +2584,7 @@
         <v>148.3125</v>
       </c>
       <c r="B109" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E109" s="1">
         <v>0.28864085000141959</v>
@@ -2604,7 +2604,7 @@
         <v>148.35416666662786</v>
       </c>
       <c r="B110" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E110" s="1">
         <v>0.28947138296480174</v>
@@ -2624,7 +2624,7 @@
         <v>148.375</v>
       </c>
       <c r="B111" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E111" s="1">
         <v>0.28895247939350649</v>
@@ -2644,7 +2644,7 @@
         <v>149.04166666662786</v>
       </c>
       <c r="B112" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E112" s="1">
         <v>0.26396017048390508</v>
@@ -2664,7 +2664,7 @@
         <v>149.0625</v>
       </c>
       <c r="B113" s="1">
-        <v>37.700000000000003</v>
+        <v>52.3</v>
       </c>
       <c r="E113" s="1">
         <v>0.26461931865084493</v>
@@ -2684,7 +2684,7 @@
         <v>149.08333333337214</v>
       </c>
       <c r="B114" s="1">
-        <v>38.700000000000003</v>
+        <v>51.3</v>
       </c>
       <c r="E114" s="1">
         <v>0.26450953148091932</v>
@@ -2704,7 +2704,7 @@
         <v>149.10416666662786</v>
       </c>
       <c r="B115" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E115" s="1">
         <v>0.26516783055700693</v>
@@ -2724,7 +2724,7 @@
         <v>149.125</v>
       </c>
       <c r="B116" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E116" s="1">
         <v>0.26505818462883995</v>
@@ -2744,7 +2744,7 @@
         <v>149.14583333337214</v>
       </c>
       <c r="B117" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E117" s="1">
         <v>0.2658251150424194</v>
@@ -2764,7 +2764,7 @@
         <v>149.16666666662786</v>
       </c>
       <c r="B118" s="1">
-        <v>38.1</v>
+        <v>51.9</v>
       </c>
       <c r="E118" s="1">
         <v>0.26571563788695141</v>
@@ -2784,7 +2784,7 @@
         <v>149.1875</v>
       </c>
       <c r="B119" s="1">
-        <v>41.1</v>
+        <v>48.9</v>
       </c>
       <c r="E119" s="1">
         <v>0.26042731450547518</v>
@@ -2804,7 +2804,7 @@
         <v>149.20833333337214</v>
       </c>
       <c r="B120" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E120" s="1">
         <v>0.26031643575648228</v>
@@ -2824,7 +2824,7 @@
         <v>149.22916666662786</v>
       </c>
       <c r="B121" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E121" s="1">
         <v>0.26031643575648228</v>
@@ -2844,7 +2844,7 @@
         <v>149.25</v>
       </c>
       <c r="B122" s="1">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
       <c r="E122" s="1">
         <v>0.26109197577605564</v>
@@ -2864,7 +2864,7 @@
         <v>149.27083333337214</v>
       </c>
       <c r="B123" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E123" s="1">
         <v>0.26098127154776829</v>
@@ -2884,7 +2884,7 @@
         <v>149.29166666662786</v>
       </c>
       <c r="B124" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E124" s="1">
         <v>0.26175559280075711</v>
@@ -2904,7 +2904,7 @@
         <v>149.3125</v>
       </c>
       <c r="B125" s="1">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="E125" s="1">
         <v>0.26098127154776829</v>
@@ -2924,7 +2924,7 @@
         <v>149.33333333337214</v>
       </c>
       <c r="B126" s="1">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
       <c r="E126" s="1">
         <v>0.26363021297620154</v>
@@ -2984,7 +2984,7 @@
         <v>149.39583333337214</v>
       </c>
       <c r="B129" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E129" s="1">
         <v>0.26296952813040908</v>
@@ -3004,7 +3004,7 @@
         <v>149.41666666662786</v>
       </c>
       <c r="B130" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E130" s="1">
         <v>0.26439971599708634</v>
@@ -3024,7 +3024,7 @@
         <v>149.4375</v>
       </c>
       <c r="B131" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E131" s="1">
         <v>0.26593456414480321</v>
@@ -3044,7 +3044,7 @@
         <v>149.45833333337214</v>
       </c>
       <c r="B132" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E132" s="1">
         <v>0.26538703788608337</v>
@@ -3064,7 +3064,7 @@
         <v>149.47916666662786</v>
       </c>
       <c r="B133" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E133" s="1">
         <v>0.26702751697737093</v>
@@ -3084,7 +3084,7 @@
         <v>149.5</v>
       </c>
       <c r="B134" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E134" s="1">
         <v>0.26648138961390078</v>
@@ -3104,7 +3104,7 @@
         <v>149.52083333337214</v>
       </c>
       <c r="B135" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E135" s="1">
         <v>0.26887916395381117</v>
@@ -3124,7 +3124,7 @@
         <v>149.54166666662786</v>
       </c>
       <c r="B136" s="1">
-        <v>49.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E136" s="1">
         <v>0.26680914963359514</v>
@@ -3144,7 +3144,7 @@
         <v>149.5625</v>
       </c>
       <c r="B137" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E137" s="1">
         <v>0.26724577305114094</v>
@@ -3164,7 +3164,7 @@
         <v>149.58333333337214</v>
       </c>
       <c r="B138" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E138" s="1">
         <v>0.26974777496235841</v>
@@ -3184,7 +3184,7 @@
         <v>149.60416666662786</v>
       </c>
       <c r="B139" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E139" s="1">
         <v>0.26615337827650865</v>
@@ -3204,7 +3204,7 @@
         <v>149.625</v>
       </c>
       <c r="B140" s="1">
-        <v>48.8</v>
+        <v>41.2</v>
       </c>
       <c r="E140" s="1">
         <v>0.26450953148091932</v>
@@ -3224,7 +3224,7 @@
         <v>149.64583333337214</v>
       </c>
       <c r="B141" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E141" s="1">
         <v>0.26461931865084493</v>
@@ -3244,7 +3244,7 @@
         <v>149.66666666662786</v>
       </c>
       <c r="B142" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E142" s="1">
         <v>0.26418000000000003</v>
@@ -3264,7 +3264,7 @@
         <v>149.6875</v>
       </c>
       <c r="B143" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E143" s="1">
         <v>0.26153450284951918</v>
@@ -3284,7 +3284,7 @@
         <v>149.70833333337214</v>
       </c>
       <c r="B144" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E144" s="1">
         <v>0.2606489845941094</v>
@@ -3304,7 +3304,7 @@
         <v>149.72916666662786</v>
       </c>
       <c r="B145" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E145" s="1">
         <v>0.25953946654276616</v>
@@ -3324,7 +3324,7 @@
         <v>149.75</v>
       </c>
       <c r="B146" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E146" s="1">
         <v>0.25764654229388267</v>
@@ -3344,7 +3344,7 @@
         <v>149.77083333337214</v>
       </c>
       <c r="B147" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E147" s="1">
         <v>0.25574502634607693</v>
@@ -3364,7 +3364,7 @@
         <v>149.79166666662786</v>
       </c>
       <c r="B148" s="1">
-        <v>46.6</v>
+        <v>43.4</v>
       </c>
       <c r="E148" s="1">
         <v>0.25293282281827928</v>
@@ -3384,7 +3384,7 @@
         <v>149.8125</v>
       </c>
       <c r="B149" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E149" s="1">
         <v>0.25372216061314123</v>
@@ -3424,7 +3424,7 @@
         <v>149.875</v>
       </c>
       <c r="B151" s="1">
-        <v>42.9</v>
+        <v>47.1</v>
       </c>
       <c r="E151" s="1">
         <v>0.24827901142514613</v>
@@ -3444,7 +3444,7 @@
         <v>149.89583333337214</v>
       </c>
       <c r="B152" s="1">
-        <v>43.9</v>
+        <v>46.1</v>
       </c>
       <c r="E152" s="1">
         <v>0.2478221467972615</v>
@@ -3464,7 +3464,7 @@
         <v>149.91666666662786</v>
       </c>
       <c r="B153" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E153" s="1">
         <v>0.24850725274206653</v>
@@ -3484,7 +3484,7 @@
         <v>149.9375</v>
       </c>
       <c r="B154" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E154" s="1">
         <v>0.24575991057828322</v>
@@ -3504,7 +3504,7 @@
         <v>149.95833333337214</v>
       </c>
       <c r="B155" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E155" s="1">
         <v>0.24656313035134714</v>
@@ -3524,7 +3524,7 @@
         <v>149.97916666662786</v>
       </c>
       <c r="B156" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E156" s="1">
         <v>0.24736477142029251</v>
@@ -3544,7 +3544,7 @@
         <v>150</v>
       </c>
       <c r="B157" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E157" s="1">
         <v>0.24713589166477518</v>
@@ -3564,7 +3564,7 @@
         <v>150.04166666662786</v>
       </c>
       <c r="B158" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E158" s="1">
         <v>0.24587475326940395</v>
@@ -3584,7 +3584,7 @@
         <v>150.0625</v>
       </c>
       <c r="B159" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E159" s="1">
         <v>0.24322512282922554</v>
@@ -3604,7 +3604,7 @@
         <v>150.08333333337214</v>
       </c>
       <c r="B160" s="1">
-        <v>38.5</v>
+        <v>51.5</v>
       </c>
       <c r="E160" s="1">
         <v>0.24391800108089962</v>
@@ -3624,7 +3624,7 @@
         <v>150.10416666662786</v>
       </c>
       <c r="B161" s="1">
-        <v>39.200000000000003</v>
+        <v>50.8</v>
       </c>
       <c r="E161" s="1">
         <v>0.24183579374697056</v>
@@ -3644,7 +3644,7 @@
         <v>150.125</v>
       </c>
       <c r="B162" s="1">
-        <v>38.5</v>
+        <v>51.5</v>
       </c>
       <c r="E162" s="1">
         <v>0.24264681642513286</v>
@@ -3664,7 +3664,7 @@
         <v>150.14583333337214</v>
       </c>
       <c r="B163" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E163" s="1">
         <v>0.24253105576466005</v>
@@ -3684,7 +3684,7 @@
         <v>150.16666666662786</v>
       </c>
       <c r="B164" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E164" s="1">
         <v>0.24334068492923444</v>
@@ -3704,7 +3704,7 @@
         <v>150.1875</v>
       </c>
       <c r="B165" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E165" s="1">
         <v>0.24322512282922554</v>
@@ -3724,7 +3724,7 @@
         <v>150.20833333337214</v>
       </c>
       <c r="B166" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E166" s="1">
         <v>0.24403336563870487</v>
@@ -3744,7 +3744,7 @@
         <v>150.22916666662786</v>
       </c>
       <c r="B167" s="1">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
       <c r="E167" s="1">
         <v>0.24391800108089962</v>
@@ -3764,7 +3764,7 @@
         <v>150.25</v>
       </c>
       <c r="B168" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E168" s="1">
         <v>0.2427625439211113</v>
@@ -3784,7 +3784,7 @@
         <v>150.27083333337214</v>
       </c>
       <c r="B169" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E169" s="1">
         <v>0.2403252637720889</v>
@@ -3804,7 +3804,7 @@
         <v>150.29166666662786</v>
       </c>
       <c r="B170" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E170" s="1">
         <v>0.24020883377579622</v>
@@ -3824,7 +3824,7 @@
         <v>150.3125</v>
       </c>
       <c r="B171" s="1">
-        <v>43.2</v>
+        <v>46.8</v>
       </c>
       <c r="E171" s="1">
         <v>0.24020883377579622</v>
@@ -3844,7 +3844,7 @@
         <v>150.33333333337214</v>
       </c>
       <c r="B172" s="1">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="E172" s="1">
         <v>0.24368717337713297</v>
@@ -3864,7 +3864,7 @@
         <v>150.35416666662786</v>
       </c>
       <c r="B173" s="1">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="E173" s="1">
         <v>0.24299389953349526</v>
@@ -3884,7 +3884,7 @@
         <v>150.375</v>
       </c>
       <c r="B174" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E174" s="1">
         <v>0.24564503547776567</v>
@@ -3924,7 +3924,7 @@
         <v>150.4375</v>
       </c>
       <c r="B176" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E176" s="1">
         <v>0.24644848154223697</v>
@@ -3944,7 +3944,7 @@
         <v>150.45833333337214</v>
       </c>
       <c r="B177" s="1">
-        <v>48.4</v>
+        <v>41.6</v>
       </c>
       <c r="E177" s="1">
         <v>0.25032862728435201</v>
@@ -3964,7 +3964,7 @@
         <v>150.47916666662786</v>
       </c>
       <c r="B178" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E178" s="1">
         <v>0.25236808796425186</v>
@@ -3984,7 +3984,7 @@
         <v>150.5</v>
       </c>
       <c r="B179" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E179" s="1">
         <v>0.25089615633821721</v>
@@ -4004,7 +4004,7 @@
         <v>150.52083333337214</v>
       </c>
       <c r="B180" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E180" s="1">
         <v>0.24930509823917185</v>
@@ -4024,7 +4024,7 @@
         <v>150.54166666662786</v>
       </c>
       <c r="B181" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E181" s="1">
         <v>0.25157616145764577</v>
@@ -4044,7 +4044,7 @@
         <v>150.5625</v>
       </c>
       <c r="B182" s="1">
-        <v>48.7</v>
+        <v>41.3</v>
       </c>
       <c r="E182" s="1">
         <v>0.25180258108610259</v>
@@ -4064,7 +4064,7 @@
         <v>150.58333333337214</v>
       </c>
       <c r="B183" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E183" s="1">
         <v>0.25044219567588644</v>
@@ -4084,7 +4084,7 @@
         <v>152</v>
       </c>
       <c r="B184" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E184" s="1">
         <v>0.21271779957643727</v>
@@ -4104,7 +4104,7 @@
         <v>152.02083333337214</v>
       </c>
       <c r="B185" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E185" s="1">
         <v>0.21008339690944716</v>
@@ -4124,7 +4124,7 @@
         <v>152.04166666662786</v>
       </c>
       <c r="B186" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E186" s="1">
         <v>0.20995748288755073</v>
@@ -4144,7 +4144,7 @@
         <v>152.0625</v>
       </c>
       <c r="B187" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E187" s="1">
         <v>0.2109636025721558</v>
@@ -4164,7 +4164,7 @@
         <v>152.08333333337214</v>
       </c>
       <c r="B188" s="1">
-        <v>39.1</v>
+        <v>50.9</v>
       </c>
       <c r="E188" s="1">
         <v>0.20882232910214971</v>
@@ -4184,7 +4184,7 @@
         <v>152.10416666662786</v>
       </c>
       <c r="B189" s="1">
-        <v>39.6</v>
+        <v>50.4</v>
       </c>
       <c r="E189" s="1">
         <v>0.20983152614672873</v>
@@ -4204,7 +4204,7 @@
         <v>152.125</v>
       </c>
       <c r="B190" s="1">
-        <v>40.1</v>
+        <v>49.9</v>
       </c>
       <c r="E190" s="1">
         <v>0.21083798637064716</v>
@@ -4224,7 +4224,7 @@
         <v>152.14583333337214</v>
       </c>
       <c r="B191" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E191" s="1">
         <v>0.2107123277527238</v>
@@ -4244,7 +4244,7 @@
         <v>152.16666666662786</v>
       </c>
       <c r="B192" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E192" s="1">
         <v>0.2107123277527238</v>
@@ -4264,7 +4264,7 @@
         <v>152.1875</v>
       </c>
       <c r="B193" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E193" s="1">
         <v>0.20970552664347197</v>
@@ -4284,7 +4284,7 @@
         <v>152.20833333337214</v>
       </c>
       <c r="B194" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E194" s="1">
         <v>0.20957948433419715</v>
@@ -4304,7 +4304,7 @@
         <v>152.25</v>
       </c>
       <c r="B195" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E195" s="1">
         <v>0.21046088309557259</v>
@@ -4324,7 +4324,7 @@
         <v>152.27083333337214</v>
       </c>
       <c r="B196" s="1">
-        <v>39.700000000000003</v>
+        <v>50.3</v>
       </c>
       <c r="E196" s="1">
         <v>0.20692262966851999</v>
@@ -4344,7 +4344,7 @@
         <v>152.29166666662786</v>
       </c>
       <c r="B197" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E197" s="1">
         <v>0.21033509697013281</v>
@@ -4364,7 +4364,7 @@
         <v>152.3125</v>
       </c>
       <c r="B198" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E198" s="1">
         <v>0.21033509697013281</v>
@@ -4384,7 +4384,7 @@
         <v>152.33333333337214</v>
       </c>
       <c r="B199" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E199" s="1">
         <v>0.20932727112288968</v>
@@ -4404,7 +4404,7 @@
         <v>152.35416666662786</v>
       </c>
       <c r="B200" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E200" s="1">
         <v>0.21083798637064716</v>
@@ -4424,7 +4424,7 @@
         <v>152.375</v>
       </c>
       <c r="B201" s="1">
-        <v>46.5</v>
+        <v>43.5</v>
       </c>
       <c r="E201" s="1">
         <v>0.21246770406229587</v>
@@ -4444,7 +4444,7 @@
         <v>152.39583333337214</v>
       </c>
       <c r="B202" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E202" s="1">
         <v>0.21496117870436754</v>
@@ -4464,7 +4464,7 @@
         <v>152.41666666662786</v>
       </c>
       <c r="B203" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E203" s="1">
         <v>0.21558196971996418</v>
@@ -4484,7 +4484,7 @@
         <v>152.4375</v>
       </c>
       <c r="B204" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E204" s="1">
         <v>0.21694412354985765</v>
@@ -4504,7 +4504,7 @@
         <v>152.45833333337214</v>
       </c>
       <c r="B205" s="1">
-        <v>48.4</v>
+        <v>41.6</v>
       </c>
       <c r="E205" s="1">
         <v>0.21867071150287354</v>
@@ -4524,7 +4524,7 @@
         <v>152.5</v>
       </c>
       <c r="B206" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E206" s="1">
         <v>0.2180549750563448</v>
@@ -4544,7 +4544,7 @@
         <v>152.52083333337214</v>
       </c>
       <c r="B207" s="1">
-        <v>50.1</v>
+        <v>39.9</v>
       </c>
       <c r="E207" s="1">
         <v>0.21940828070847107</v>
@@ -4564,7 +4564,7 @@
         <v>152.54166666662786</v>
       </c>
       <c r="B208" s="1">
-        <v>49.9</v>
+        <v>40.1</v>
       </c>
       <c r="E208" s="1">
         <v>0.21854764406272154</v>
@@ -4584,7 +4584,7 @@
         <v>152.5625</v>
       </c>
       <c r="B209" s="1">
-        <v>48.9</v>
+        <v>41.1</v>
       </c>
       <c r="E209" s="1">
         <v>0.21719126119370308</v>
@@ -4604,7 +4604,7 @@
         <v>152.58333333337214</v>
       </c>
       <c r="B210" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E210" s="1">
         <v>0.21743823757312913</v>
@@ -4624,7 +4624,7 @@
         <v>152.60416666662786</v>
       </c>
       <c r="B211" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E211" s="1">
         <v>0.2198992006812186</v>
@@ -4644,7 +4644,7 @@
         <v>152.625</v>
       </c>
       <c r="B212" s="1">
-        <v>48.7</v>
+        <v>41.3</v>
       </c>
       <c r="E212" s="1">
         <v>0.21620173986354019</v>
@@ -4664,7 +4664,7 @@
         <v>152.64583333337214</v>
       </c>
       <c r="B213" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E213" s="1">
         <v>0.21854764406272154</v>
@@ -4684,7 +4684,7 @@
         <v>152.66666666662786</v>
       </c>
       <c r="B214" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E214" s="1">
         <v>0.21867071150287354</v>
@@ -4704,7 +4704,7 @@
         <v>152.6875</v>
       </c>
       <c r="B215" s="1">
-        <v>48.7</v>
+        <v>41.3</v>
       </c>
       <c r="E215" s="1">
         <v>0.21607786726303913</v>
@@ -4724,7 +4724,7 @@
         <v>152.70833333337214</v>
       </c>
       <c r="B216" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E216" s="1">
         <v>0.21620173986354019</v>
@@ -4744,7 +4744,7 @@
         <v>152.72916666662786</v>
       </c>
       <c r="B217" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E217" s="1">
         <v>0.21570600525721068</v>
@@ -4764,7 +4764,7 @@
         <v>152.75</v>
       </c>
       <c r="B218" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E218" s="1">
         <v>0.21421487480524654</v>
@@ -4784,7 +4784,7 @@
         <v>152.77083333337214</v>
       </c>
       <c r="B219" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E219" s="1">
         <v>0.21533377610086962</v>
@@ -4804,7 +4804,7 @@
         <v>152.79166666662786</v>
       </c>
       <c r="B220" s="1">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="E220" s="1">
         <v>0.21159104883330193</v>
@@ -4824,7 +4824,7 @@
         <v>152.8125</v>
       </c>
       <c r="B221" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E221" s="1">
         <v>0.21221744109211282</v>
@@ -4844,7 +4844,7 @@
         <v>152.83333333337214</v>
       </c>
       <c r="B222" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E222" s="1">
         <v>0.20717648880220296</v>
@@ -4864,7 +4864,7 @@
         <v>152.875</v>
       </c>
       <c r="B223" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E223" s="1">
         <v>0.20920110013331944</v>
@@ -4884,7 +4884,7 @@
         <v>152.89583333337214</v>
       </c>
       <c r="B224" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E224" s="1">
         <v>0.20806362178752796</v>
@@ -4904,7 +4904,7 @@
         <v>152.91666666662786</v>
       </c>
       <c r="B225" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E225" s="1">
         <v>0.20641438563102205</v>
@@ -4924,7 +4924,7 @@
         <v>152.9375</v>
       </c>
       <c r="B226" s="1">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E226" s="1">
         <v>0.20743017316189349</v>
@@ -4944,7 +4944,7 @@
         <v>152.95833333337214</v>
       </c>
       <c r="B227" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E227" s="1">
         <v>0.2084431700518618</v>
@@ -4964,7 +4964,7 @@
         <v>152.97916666662786</v>
       </c>
       <c r="B228" s="1">
-        <v>40.9</v>
+        <v>49.1</v>
       </c>
       <c r="E228" s="1">
         <v>0.20615999999999995</v>
@@ -4984,7 +4984,7 @@
         <v>153</v>
       </c>
       <c r="B229" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E229" s="1">
         <v>0.20717648880220296</v>
@@ -5004,7 +5004,7 @@
         <v>153.02083333337214</v>
       </c>
       <c r="B230" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E230" s="1">
         <v>0.20450218137676546</v>
@@ -5024,7 +5024,7 @@
         <v>153.04166666662786</v>
       </c>
       <c r="B231" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E231" s="1">
         <v>0.20552326412047528</v>
@@ -5044,7 +5044,7 @@
         <v>153.0625</v>
       </c>
       <c r="B232" s="1">
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E232" s="1">
         <v>0.20450218137676546</v>
@@ -5064,7 +5064,7 @@
         <v>153.08333333337214</v>
       </c>
       <c r="B233" s="1">
-        <v>39.1</v>
+        <v>50.9</v>
       </c>
       <c r="E233" s="1">
         <v>0.20437434555899597</v>
@@ -5084,7 +5084,7 @@
         <v>153.10416666662786</v>
       </c>
       <c r="B234" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E234" s="1">
         <v>0.20167939349224767</v>
@@ -5104,7 +5104,7 @@
         <v>153.125</v>
       </c>
       <c r="B235" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E235" s="1">
         <v>0.20155056317994052</v>
@@ -5124,7 +5124,7 @@
         <v>153.14583333337214</v>
       </c>
       <c r="B236" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E236" s="1">
         <v>0.20270839454605988</v>
@@ -5144,7 +5144,7 @@
         <v>153.16666666662786</v>
       </c>
       <c r="B237" s="1">
-        <v>40.4</v>
+        <v>49.6</v>
       </c>
       <c r="E237" s="1">
         <v>0.20257992854786588</v>
@@ -5164,7 +5164,7 @@
         <v>153.1875</v>
       </c>
       <c r="B238" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E238" s="1">
         <v>0.2036063901879494</v>
@@ -5184,7 +5184,7 @@
         <v>153.20833333337214</v>
       </c>
       <c r="B239" s="1">
-        <v>41.3</v>
+        <v>48.7</v>
       </c>
       <c r="E239" s="1">
         <v>0.2036063901879494</v>
@@ -5204,7 +5204,7 @@
         <v>153.25</v>
       </c>
       <c r="B240" s="1">
-        <v>42.6</v>
+        <v>47.4</v>
       </c>
       <c r="E240" s="1">
         <v>0.20245141717936987</v>
@@ -5224,7 +5224,7 @@
         <v>153.29166666662786</v>
       </c>
       <c r="B241" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E241" s="1">
         <v>0.20232286039246761</v>
@@ -5264,7 +5264,7 @@
         <v>153.35416666662786</v>
       </c>
       <c r="B243" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E243" s="1">
         <v>0.20270839454605988</v>
@@ -5284,7 +5284,7 @@
         <v>153.39583333337214</v>
       </c>
       <c r="B244" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E244" s="1">
         <v>0.20793701899999134</v>
@@ -5304,7 +5304,7 @@
         <v>153.41666666662786</v>
       </c>
       <c r="B245" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E245" s="1">
         <v>0.2084431700518618</v>
@@ -5324,7 +5324,7 @@
         <v>153.4375</v>
       </c>
       <c r="B246" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E246" s="1">
         <v>0.20894862916694235</v>
@@ -5344,7 +5344,7 @@
         <v>153.45833333337214</v>
       </c>
       <c r="B247" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E247" s="1">
         <v>0.20945339917524691</v>
@@ -5364,7 +5364,7 @@
         <v>153.47916666662786</v>
       </c>
       <c r="B248" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E248" s="1">
         <v>0.21221744109211282</v>
@@ -5384,7 +5384,7 @@
         <v>153.5</v>
       </c>
       <c r="B249" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E249" s="1">
         <v>0.21496117870436754</v>
@@ -5404,7 +5404,7 @@
         <v>153.52083333337214</v>
       </c>
       <c r="B250" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E250" s="1">
         <v>0.21953107002974426</v>
@@ -5424,7 +5424,7 @@
         <v>153.54166666662786</v>
       </c>
       <c r="B251" s="1">
-        <v>48.8</v>
+        <v>41.2</v>
       </c>
       <c r="E251" s="1">
         <v>0.21743823757312913</v>
@@ -5444,7 +5444,7 @@
         <v>153.58333333337214</v>
       </c>
       <c r="B252" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E252" s="1">
         <v>0.2178084004608708</v>
@@ -5464,7 +5464,7 @@
         <v>153.60416666662786</v>
       </c>
       <c r="B253" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E253" s="1">
         <v>0.22087914882944615</v>
@@ -5484,7 +5484,7 @@
         <v>153.64583333337214</v>
       </c>
       <c r="B254" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E254" s="1">
         <v>0.21830138948639266</v>
@@ -5504,7 +5504,7 @@
         <v>153.66666666662786</v>
       </c>
       <c r="B255" s="1">
-        <v>49.9</v>
+        <v>40.1</v>
       </c>
       <c r="E255" s="1">
         <v>0.21842453673682977</v>
@@ -5524,7 +5524,7 @@
         <v>153.6875</v>
       </c>
       <c r="B256" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E256" s="1">
         <v>0.2198992006812186</v>
@@ -5544,7 +5544,7 @@
         <v>153.70833333337214</v>
       </c>
       <c r="B257" s="1">
-        <v>46.3</v>
+        <v>43.7</v>
       </c>
       <c r="E257" s="1">
         <v>0.21940828070847107</v>
@@ -5564,7 +5564,7 @@
         <v>153.72916666662786</v>
       </c>
       <c r="B258" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E258" s="1">
         <v>0.21657311402109569</v>
@@ -5584,7 +5584,7 @@
         <v>153.75</v>
       </c>
       <c r="B259" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E259" s="1">
         <v>0.21903967489600662</v>
@@ -5604,7 +5604,7 @@
         <v>153.77083333337214</v>
       </c>
       <c r="B260" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E260" s="1">
         <v>0.21620173986354019</v>
@@ -5624,7 +5624,7 @@
         <v>153.79166666662786</v>
       </c>
       <c r="B261" s="1">
-        <v>46.1</v>
+        <v>43.9</v>
       </c>
       <c r="E261" s="1">
         <v>0.21731476952173956</v>
@@ -5644,7 +5644,7 @@
         <v>153.8125</v>
       </c>
       <c r="B262" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E262" s="1">
         <v>0.21558196971996418</v>
@@ -5664,7 +5664,7 @@
         <v>153.83333333337214</v>
       </c>
       <c r="B263" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E263" s="1">
         <v>0.21171641143520747</v>
@@ -5684,7 +5684,7 @@
         <v>153.85416666662786</v>
       </c>
       <c r="B264" s="1">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="E264" s="1">
         <v>0.21271779957643727</v>
@@ -5704,7 +5704,7 @@
         <v>153.875</v>
       </c>
       <c r="B265" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E265" s="1">
         <v>0.21108917640017411</v>
@@ -5724,7 +5724,7 @@
         <v>153.89583333337214</v>
       </c>
       <c r="B266" s="1">
-        <v>42.9</v>
+        <v>47.1</v>
       </c>
       <c r="E266" s="1">
         <v>0.20932727112288968</v>
@@ -5744,7 +5744,7 @@
         <v>153.91666666662786</v>
       </c>
       <c r="B267" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E267" s="1">
         <v>0.20819018119565774</v>
@@ -5764,7 +5764,7 @@
         <v>153.9375</v>
       </c>
       <c r="B268" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E268" s="1">
         <v>0.20654151247514191</v>
@@ -5784,7 +5784,7 @@
         <v>153.95833333337214</v>
       </c>
       <c r="B269" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E269" s="1">
         <v>0.20755694991419099</v>
@@ -5804,7 +5804,7 @@
         <v>153.97916666662786</v>
       </c>
       <c r="B270" s="1">
-        <v>41.6</v>
+        <v>48.4</v>
       </c>
       <c r="E270" s="1">
         <v>0.20856959958882804</v>
@@ -5824,7 +5824,7 @@
         <v>154</v>
       </c>
       <c r="B271" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E271" s="1">
         <v>0.2036063901879494</v>
@@ -5844,7 +5844,7 @@
         <v>154.02083333337214</v>
       </c>
       <c r="B272" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E272" s="1">
         <v>0.20475771908266049</v>
@@ -5864,7 +5864,7 @@
         <v>154.04166666662786</v>
       </c>
       <c r="B273" s="1">
-        <v>38.4</v>
+        <v>51.6</v>
       </c>
       <c r="E273" s="1">
         <v>0.20577809101061861</v>
@@ -5884,7 +5884,7 @@
         <v>154.0625</v>
       </c>
       <c r="B274" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E274" s="1">
         <v>0.20565069968593869</v>
@@ -5904,7 +5904,7 @@
         <v>154.08333333337214</v>
       </c>
       <c r="B275" s="1">
-        <v>40.1</v>
+        <v>49.9</v>
       </c>
       <c r="E275" s="1">
         <v>0.20462997253572984</v>
@@ -5924,7 +5924,7 @@
         <v>154.10416666662786</v>
       </c>
       <c r="B276" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E276" s="1">
         <v>0.20565069968593869</v>
@@ -5944,7 +5944,7 @@
         <v>154.14583333337214</v>
       </c>
       <c r="B277" s="1">
-        <v>39.799999999999997</v>
+        <v>50.2</v>
       </c>
       <c r="E277" s="1">
         <v>0.20296519062353457</v>
@@ -5964,7 +5964,7 @@
         <v>154.16666666662786</v>
       </c>
       <c r="B278" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E278" s="1">
         <v>0.20283681522197117</v>
@@ -5984,7 +5984,7 @@
         <v>154.1875</v>
       </c>
       <c r="B279" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E279" s="1">
         <v>0.20386255476157461</v>
@@ -6004,7 +6004,7 @@
         <v>154.20833333337214</v>
       </c>
       <c r="B280" s="1">
-        <v>41.4</v>
+        <v>48.6</v>
       </c>
       <c r="E280" s="1">
         <v>0.20386255476157461</v>
@@ -6024,7 +6024,7 @@
         <v>154.22916666662786</v>
       </c>
       <c r="B281" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E281" s="1">
         <v>0.20488542106424718</v>
@@ -6044,7 +6044,7 @@
         <v>154.25</v>
       </c>
       <c r="B282" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E282" s="1">
         <v>0.20488542106424718</v>
@@ -6064,7 +6064,7 @@
         <v>154.27083333337214</v>
       </c>
       <c r="B283" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E283" s="1">
         <v>0.20270839454605988</v>
@@ -6084,7 +6084,7 @@
         <v>154.29166666662786</v>
       </c>
       <c r="B284" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E284" s="1">
         <v>0.20270839454605988</v>
@@ -6104,7 +6104,7 @@
         <v>154.3125</v>
       </c>
       <c r="B285" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E285" s="1">
         <v>0.20270839454605988</v>
@@ -6124,7 +6124,7 @@
         <v>154.33333333337214</v>
       </c>
       <c r="B286" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E286" s="1">
         <v>0.20411853975954747</v>
@@ -6144,7 +6144,7 @@
         <v>154.35416666662786</v>
       </c>
       <c r="B287" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E287" s="1">
         <v>0.20514069151774067</v>
@@ -6164,7 +6164,7 @@
         <v>154.39583333337214</v>
       </c>
       <c r="B288" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E288" s="1">
         <v>0.20704958110468918</v>
@@ -6184,7 +6184,7 @@
         <v>154.41666666662786</v>
       </c>
       <c r="B289" s="1">
-        <v>46.9</v>
+        <v>43.1</v>
       </c>
       <c r="E289" s="1">
         <v>0.20869598592417188</v>
@@ -6204,7 +6204,7 @@
         <v>154.45833333337214</v>
       </c>
       <c r="B290" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E290" s="1">
         <v>0.21309262960159886</v>
@@ -6224,7 +6224,7 @@
         <v>154.47916666662786</v>
       </c>
       <c r="B291" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E291" s="1">
         <v>0.21371651376972717</v>
@@ -6244,7 +6244,7 @@
         <v>154.5</v>
       </c>
       <c r="B292" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E292" s="1">
         <v>0.21644936320263991</v>
@@ -6264,7 +6264,7 @@
         <v>154.52083333337214</v>
       </c>
       <c r="B293" s="1">
-        <v>49.9</v>
+        <v>40.1</v>
       </c>
       <c r="E293" s="1">
         <v>0.21719126119370308</v>
@@ -6284,7 +6284,7 @@
         <v>154.54166666662786</v>
       </c>
       <c r="B294" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E294" s="1">
         <v>0.21903967489600662</v>
@@ -6304,7 +6304,7 @@
         <v>154.5625</v>
       </c>
       <c r="B295" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E295" s="1">
         <v>0.21916258318000209</v>
@@ -6324,7 +6324,7 @@
         <v>154.58333333337214</v>
       </c>
       <c r="B296" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E296" s="1">
         <v>0.21940828070847107</v>
@@ -6344,7 +6344,7 @@
         <v>154.60416666662786</v>
       </c>
       <c r="B297" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E297" s="1">
         <v>0.21953107002974426</v>
@@ -6364,7 +6364,7 @@
         <v>154.64583333337214</v>
       </c>
       <c r="B298" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E298" s="1">
         <v>0.22234437777712834</v>
@@ -6384,7 +6384,7 @@
         <v>154.66666666662786</v>
       </c>
       <c r="B299" s="1">
-        <v>49.6</v>
+        <v>40.4</v>
       </c>
       <c r="E299" s="1">
         <v>0.21842453673682977</v>
@@ -6404,7 +6404,7 @@
         <v>154.6875</v>
       </c>
       <c r="B300" s="1">
-        <v>48.4</v>
+        <v>41.6</v>
       </c>
       <c r="E300" s="1">
         <v>0.21558196971996418</v>
@@ -6424,7 +6424,7 @@
         <v>154.70833333337214</v>
       </c>
       <c r="B301" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E301" s="1">
         <v>0.21409034657273751</v>
@@ -6444,7 +6444,7 @@
         <v>154.72916666662786</v>
       </c>
       <c r="B302" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E302" s="1">
         <v>0.21644936320263991</v>
@@ -6464,7 +6464,7 @@
         <v>154.75</v>
       </c>
       <c r="B303" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E303" s="1">
         <v>0.2178084004608708</v>
@@ -6484,7 +6484,7 @@
         <v>154.77083333337214</v>
       </c>
       <c r="B304" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E304" s="1">
         <v>0.21496117870436754</v>
@@ -6504,7 +6504,7 @@
         <v>154.79166666662786</v>
       </c>
       <c r="B305" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E305" s="1">
         <v>0.21607786726303913</v>
@@ -6524,7 +6524,7 @@
         <v>154.8125</v>
       </c>
       <c r="B306" s="1">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="E306" s="1">
         <v>0.21309262960159886</v>
@@ -6544,7 +6544,7 @@
         <v>154.83333333337214</v>
       </c>
       <c r="B307" s="1">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E307" s="1">
         <v>0.21545789334796955</v>
@@ -6564,7 +6564,7 @@
         <v>154.85416666662786</v>
       </c>
       <c r="B308" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E308" s="1">
         <v>0.21159104883330193</v>
@@ -6584,7 +6584,7 @@
         <v>154.875</v>
       </c>
       <c r="B309" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E309" s="1">
         <v>0.20856959958882804</v>
@@ -6604,7 +6604,7 @@
         <v>154.89583333337214</v>
       </c>
       <c r="B310" s="1">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="E310" s="1">
         <v>0.21083798637064716</v>
@@ -6624,7 +6624,7 @@
         <v>154.91666666662786</v>
       </c>
       <c r="B311" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E311" s="1">
         <v>0.20920110013331944</v>
@@ -6644,7 +6644,7 @@
         <v>154.9375</v>
       </c>
       <c r="B312" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E312" s="1">
         <v>0.20806362178752796</v>
@@ -6664,7 +6664,7 @@
         <v>154.95833333337214</v>
       </c>
       <c r="B313" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E313" s="1">
         <v>0.20514069151774067</v>
@@ -6684,7 +6684,7 @@
         <v>154.97916666662786</v>
       </c>
       <c r="B314" s="1">
-        <v>41.8</v>
+        <v>48.2</v>
       </c>
       <c r="E314" s="1">
         <v>0.20628721482119039</v>
@@ -6704,7 +6704,7 @@
         <v>155.02083333337214</v>
       </c>
       <c r="B315" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E315" s="1">
         <v>0.20730335280623802</v>
@@ -6724,7 +6724,7 @@
         <v>155.04166666662786</v>
       </c>
       <c r="B316" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E316" s="1">
         <v>0.20717648880220296</v>
@@ -6744,7 +6744,7 @@
         <v>155.0625</v>
       </c>
       <c r="B317" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E317" s="1">
         <v>0.20437434555899597</v>
@@ -6764,7 +6764,7 @@
         <v>155.08333333337214</v>
       </c>
       <c r="B318" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E318" s="1">
         <v>0.20565069968593869</v>
@@ -6784,7 +6784,7 @@
         <v>155.10416666662786</v>
       </c>
       <c r="B319" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E319" s="1">
         <v>0.20335004566021925</v>
@@ -6804,7 +6804,7 @@
         <v>155.14583333337214</v>
       </c>
       <c r="B320" s="1">
-        <v>41.1</v>
+        <v>48.9</v>
       </c>
       <c r="E320" s="1">
         <v>0.20437434555899597</v>
@@ -6824,7 +6824,7 @@
         <v>155.16666666662786</v>
       </c>
       <c r="B321" s="1">
-        <v>40.799999999999997</v>
+        <v>49.2</v>
       </c>
       <c r="E321" s="1">
         <v>0.20437434555899597</v>
@@ -6844,7 +6844,7 @@
         <v>155.1875</v>
       </c>
       <c r="B322" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E322" s="1">
         <v>0.20424646503556831</v>
@@ -6864,7 +6864,7 @@
         <v>155.20833333337214</v>
       </c>
       <c r="B323" s="1">
-        <v>41.6</v>
+        <v>48.4</v>
       </c>
       <c r="E323" s="1">
         <v>0.20424646503556831</v>
@@ -6884,7 +6884,7 @@
         <v>155.22916666662786</v>
       </c>
       <c r="B324" s="1">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="E324" s="1">
         <v>0.20411853975954747</v>
@@ -6904,7 +6904,7 @@
         <v>155.25</v>
       </c>
       <c r="B325" s="1">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="E325" s="1">
         <v>0.2032218057949346</v>
@@ -6924,7 +6924,7 @@
         <v>155.27083333337214</v>
       </c>
       <c r="B326" s="1">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="E326" s="1">
         <v>0.2032218057949346</v>
@@ -6944,7 +6944,7 @@
         <v>155.29166666662786</v>
       </c>
       <c r="B327" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E327" s="1">
         <v>0.20309352079860032</v>
@@ -6964,7 +6964,7 @@
         <v>155.3125</v>
       </c>
       <c r="B328" s="1">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
       <c r="E328" s="1">
         <v>0.20309352079860032</v>
@@ -6984,7 +6984,7 @@
         <v>155.33333333337214</v>
       </c>
       <c r="B329" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E329" s="1">
         <v>0.20565069968593869</v>
@@ -7004,7 +7004,7 @@
         <v>155.35416666662786</v>
       </c>
       <c r="B330" s="1">
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="E330" s="1">
         <v>0.20450218137676546</v>
@@ -7024,7 +7024,7 @@
         <v>155.375</v>
       </c>
       <c r="B331" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E331" s="1">
         <v>0.20437434555899597</v>
@@ -7044,7 +7044,7 @@
         <v>155.39583333337214</v>
       </c>
       <c r="B332" s="1">
-        <v>47.4</v>
+        <v>42.6</v>
       </c>
       <c r="E332" s="1">
         <v>0.20717648880220296</v>
@@ -7064,7 +7064,7 @@
         <v>155.41666666662786</v>
       </c>
       <c r="B333" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E333" s="1">
         <v>0.20615999999999995</v>
@@ -7084,7 +7084,7 @@
         <v>155.4375</v>
       </c>
       <c r="B334" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E334" s="1">
         <v>0.2084431700518618</v>
@@ -7104,7 +7104,7 @@
         <v>155.45833333337214</v>
       </c>
       <c r="B335" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E335" s="1">
         <v>0.20730335280623802</v>
@@ -7124,7 +7124,7 @@
         <v>155.47916666662786</v>
       </c>
       <c r="B336" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E336" s="1">
         <v>0.20628721482119039</v>
@@ -7144,7 +7144,7 @@
         <v>155.5</v>
       </c>
       <c r="B337" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E337" s="1">
         <v>0.20755694991419099</v>
@@ -7164,7 +7164,7 @@
         <v>155.52083333337214</v>
       </c>
       <c r="B338" s="1">
-        <v>49.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E338" s="1">
         <v>0.20781037278841136</v>
@@ -7184,7 +7184,7 @@
         <v>155.54166666662786</v>
       </c>
       <c r="B339" s="1">
-        <v>48.9</v>
+        <v>41.1</v>
       </c>
       <c r="E339" s="1">
         <v>0.20945339917524691</v>
@@ -7204,7 +7204,7 @@
         <v>155.5625</v>
       </c>
       <c r="B340" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E340" s="1">
         <v>0.20666859539911825</v>
@@ -7224,7 +7224,7 @@
         <v>155.58333333337214</v>
       </c>
       <c r="B341" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E341" s="1">
         <v>0.20704958110468918</v>
@@ -7244,7 +7244,7 @@
         <v>155.60416666662786</v>
       </c>
       <c r="B342" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E342" s="1">
         <v>0.20793701899999134</v>
@@ -7264,7 +7264,7 @@
         <v>155.625</v>
       </c>
       <c r="B343" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E343" s="1">
         <v>0.20373449494534074</v>
@@ -7284,7 +7284,7 @@
         <v>155.64583333337214</v>
       </c>
       <c r="B344" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E344" s="1">
         <v>0.20654151247514191</v>
@@ -7304,7 +7304,7 @@
         <v>155.66666666662786</v>
       </c>
       <c r="B345" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E345" s="1">
         <v>0.20920110013331944</v>
@@ -7324,7 +7324,7 @@
         <v>155.70833333337214</v>
       </c>
       <c r="B346" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E346" s="1">
         <v>0.2109636025721558</v>
@@ -7344,7 +7344,7 @@
         <v>155.72916666662786</v>
       </c>
       <c r="B347" s="1">
-        <v>47.9</v>
+        <v>42.1</v>
       </c>
       <c r="E347" s="1">
         <v>0.21083798637064716</v>
@@ -7364,7 +7364,7 @@
         <v>155.75</v>
       </c>
       <c r="B348" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E348" s="1">
         <v>0.2134670847339718</v>
@@ -7384,7 +7384,7 @@
         <v>155.77083333337214</v>
       </c>
       <c r="B349" s="1">
-        <v>47.1</v>
+        <v>42.9</v>
       </c>
       <c r="E349" s="1">
         <v>0.21221744109211282</v>
@@ -7404,7 +7404,7 @@
         <v>155.79166666662786</v>
       </c>
       <c r="B350" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E350" s="1">
         <v>0.21221744109211282</v>
@@ -7424,7 +7424,7 @@
         <v>155.8125</v>
       </c>
       <c r="B351" s="1">
-        <v>45.4</v>
+        <v>44.6</v>
       </c>
       <c r="E351" s="1">
         <v>0.21108917640017411</v>
@@ -7444,7 +7444,7 @@
         <v>155.83333333337214</v>
       </c>
       <c r="B352" s="1">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="E352" s="1">
         <v>0.21221744109211282</v>
@@ -7484,7 +7484,7 @@
         <v>155.875</v>
       </c>
       <c r="B354" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E354" s="1">
         <v>0.21033509697013281</v>
@@ -7504,7 +7504,7 @@
         <v>155.89583333337214</v>
       </c>
       <c r="B355" s="1">
-        <v>42.8</v>
+        <v>47.2</v>
       </c>
       <c r="E355" s="1">
         <v>0.20932727112288968</v>
@@ -7524,7 +7524,7 @@
         <v>155.91666666662786</v>
       </c>
       <c r="B356" s="1">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="E356" s="1">
         <v>0.20654151247514191</v>
@@ -7544,7 +7544,7 @@
         <v>155.9375</v>
       </c>
       <c r="B357" s="1">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
       <c r="E357" s="1">
         <v>0.20641438563102205</v>
@@ -7564,7 +7564,7 @@
         <v>155.95833333337214</v>
       </c>
       <c r="B358" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E358" s="1">
         <v>0.20755694991419099</v>
@@ -7584,7 +7584,7 @@
         <v>155.97916666662786</v>
       </c>
       <c r="B359" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E359" s="1">
         <v>0.20755694991419099</v>
@@ -7604,7 +7604,7 @@
         <v>156</v>
       </c>
       <c r="B360" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E360" s="1">
         <v>0.20743017316189349</v>
@@ -7624,7 +7624,7 @@
         <v>156.02083333337214</v>
       </c>
       <c r="B361" s="1">
-        <v>40.6</v>
+        <v>49.4</v>
       </c>
       <c r="E361" s="1">
         <v>0.20856959958882804</v>
@@ -7644,7 +7644,7 @@
         <v>156.04166666662786</v>
       </c>
       <c r="B362" s="1">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="E362" s="1">
         <v>0.20856959958882804</v>
@@ -7664,7 +7664,7 @@
         <v>156.0625</v>
       </c>
       <c r="B363" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E363" s="1">
         <v>0.20641438563102205</v>
@@ -7684,7 +7684,7 @@
         <v>156.08333333337214</v>
       </c>
       <c r="B364" s="1">
-        <v>39.9</v>
+        <v>50.1</v>
       </c>
       <c r="E364" s="1">
         <v>0.20755694991419099</v>
@@ -7704,7 +7704,7 @@
         <v>156.10416666662786</v>
       </c>
       <c r="B365" s="1">
-        <v>39.4</v>
+        <v>50.6</v>
       </c>
       <c r="E365" s="1">
         <v>0.20743017316189349</v>
@@ -7724,7 +7724,7 @@
         <v>156.14583333337214</v>
       </c>
       <c r="B366" s="1">
-        <v>40.299999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E366" s="1">
         <v>0.20475771908266049</v>
@@ -7744,7 +7744,7 @@
         <v>156.16666666662786</v>
       </c>
       <c r="B367" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E367" s="1">
         <v>0.20462997253572984</v>
@@ -7764,7 +7764,7 @@
         <v>156.1875</v>
       </c>
       <c r="B368" s="1">
-        <v>41.1</v>
+        <v>48.9</v>
       </c>
       <c r="E368" s="1">
         <v>0.20590543814055912</v>
@@ -7784,7 +7784,7 @@
         <v>156.20833333337214</v>
       </c>
       <c r="B369" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E369" s="1">
         <v>0.20577809101061861</v>
@@ -7804,7 +7804,7 @@
         <v>156.22916666662786</v>
       </c>
       <c r="B370" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E370" s="1">
         <v>0.20577809101061861</v>
@@ -7824,7 +7824,7 @@
         <v>156.25</v>
       </c>
       <c r="B371" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E371" s="1">
         <v>0.20577809101061861</v>
@@ -7844,7 +7844,7 @@
         <v>156.27083333337214</v>
       </c>
       <c r="B372" s="1">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="E372" s="1">
         <v>0.20565069968593869</v>
@@ -7864,7 +7864,7 @@
         <v>156.29166666662786</v>
       </c>
       <c r="B373" s="1">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="E373" s="1">
         <v>0.20565069968593869</v>
@@ -7884,7 +7884,7 @@
         <v>156.3125</v>
       </c>
       <c r="B374" s="1">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="E374" s="1">
         <v>0.20565069968593869</v>
@@ -7904,7 +7904,7 @@
         <v>156.33333333337214</v>
       </c>
       <c r="B375" s="1">
-        <v>45.2</v>
+        <v>44.8</v>
       </c>
       <c r="E375" s="1">
         <v>0.20450218137676546</v>
@@ -7924,7 +7924,7 @@
         <v>156.35416666662786</v>
       </c>
       <c r="B376" s="1">
-        <v>44.4</v>
+        <v>45.6</v>
       </c>
       <c r="E376" s="1">
         <v>0.20717648880220296</v>
@@ -7944,7 +7944,7 @@
         <v>156.375</v>
       </c>
       <c r="B377" s="1">
-        <v>46.2</v>
+        <v>43.8</v>
       </c>
       <c r="E377" s="1">
         <v>0.20869598592417188</v>
@@ -7964,7 +7964,7 @@
         <v>156.39583333337214</v>
       </c>
       <c r="B378" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E378" s="1">
         <v>0.20641438563102205</v>
@@ -7984,7 +7984,7 @@
         <v>156.41666666662786</v>
       </c>
       <c r="B379" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E379" s="1">
         <v>0.212842784642441</v>
@@ -8004,7 +8004,7 @@
         <v>156.4375</v>
       </c>
       <c r="B380" s="1">
-        <v>47.6</v>
+        <v>42.4</v>
       </c>
       <c r="E380" s="1">
         <v>0.2134670847339718</v>
@@ -8024,7 +8024,7 @@
         <v>156.45833333337214</v>
       </c>
       <c r="B381" s="1">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="E381" s="1">
         <v>0.21669682432528448</v>
@@ -8044,7 +8044,7 @@
         <v>156.47916666662786</v>
       </c>
       <c r="B382" s="1">
-        <v>47.8</v>
+        <v>42.2</v>
       </c>
       <c r="E382" s="1">
         <v>0.21731476952173956</v>
@@ -8064,7 +8064,7 @@
         <v>156.5</v>
       </c>
       <c r="B383" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E383" s="1">
         <v>0.2178084004608708</v>
@@ -8084,7 +8084,7 @@
         <v>156.52083333337214</v>
       </c>
       <c r="B384" s="1">
-        <v>49.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E384" s="1">
         <v>0.21965381977347331</v>
@@ -8104,7 +8104,7 @@
         <v>156.54166666662786</v>
       </c>
       <c r="B385" s="1">
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="E385" s="1">
         <v>0.22087914882944615</v>
@@ -8124,7 +8124,7 @@
         <v>156.5625</v>
       </c>
       <c r="B386" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E386" s="1">
         <v>0.21977652997790353</v>
@@ -8144,7 +8144,7 @@
         <v>156.58333333337214</v>
       </c>
       <c r="B387" s="1">
-        <v>49.2</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E387" s="1">
         <v>0.22124598220344699</v>
@@ -8164,7 +8164,7 @@
         <v>156.60416666662786</v>
       </c>
       <c r="B388" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E388" s="1">
         <v>0.21854764406272154</v>
@@ -8184,7 +8184,7 @@
         <v>156.625</v>
       </c>
       <c r="B389" s="1">
-        <v>49.1</v>
+        <v>40.9</v>
       </c>
       <c r="E389" s="1">
         <v>0.22100146573090718</v>
@@ -8204,7 +8204,7 @@
         <v>156.64583333337214</v>
       </c>
       <c r="B390" s="1">
-        <v>49.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E390" s="1">
         <v>0.21817820227254159</v>
@@ -8224,7 +8224,7 @@
         <v>156.66666666662786</v>
       </c>
       <c r="B391" s="1">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E391" s="1">
         <v>0.2180549750563448</v>
@@ -8244,7 +8244,7 @@
         <v>156.6875</v>
       </c>
       <c r="B392" s="1">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="E392" s="1">
         <v>0.21359181999611565</v>
@@ -8264,7 +8264,7 @@
         <v>156.70833333337214</v>
       </c>
       <c r="B393" s="1">
-        <v>48.1</v>
+        <v>41.9</v>
       </c>
       <c r="E393" s="1">
         <v>0.2132174895782572</v>
@@ -8284,7 +8284,7 @@
         <v>156.72916666662786</v>
       </c>
       <c r="B394" s="1">
-        <v>48.8</v>
+        <v>41.2</v>
       </c>
       <c r="E394" s="1">
         <v>0.21458821197265548</v>
@@ -8304,7 +8304,7 @@
         <v>156.75</v>
       </c>
       <c r="B395" s="1">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="E395" s="1">
         <v>0.21296772797023256</v>
@@ -8324,7 +8324,7 @@
         <v>156.77083333337214</v>
       </c>
       <c r="B396" s="1">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
       <c r="E396" s="1">
         <v>0.2109636025721558</v>
@@ -8344,7 +8344,7 @@
         <v>156.79166666662786</v>
       </c>
       <c r="B397" s="1">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="E397" s="1">
         <v>0.2105866266753888</v>
@@ -8364,7 +8364,7 @@
         <v>156.8125</v>
       </c>
       <c r="B398" s="1">
-        <v>45.8</v>
+        <v>44.2</v>
       </c>
       <c r="E398" s="1">
         <v>0.20666859539911825</v>
@@ -8384,7 +8384,7 @@
         <v>156.83333333337214</v>
       </c>
       <c r="B399" s="1">
-        <v>43.4</v>
+        <v>46.6</v>
       </c>
       <c r="E399" s="1">
         <v>0.20514069151774067</v>
@@ -8404,7 +8404,7 @@
         <v>156.85416666662786</v>
       </c>
       <c r="B400" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E400" s="1">
         <v>0.20475771908266049</v>
@@ -8424,7 +8424,7 @@
         <v>156.875</v>
       </c>
       <c r="B401" s="1">
-        <v>43.2</v>
+        <v>46.8</v>
       </c>
       <c r="E401" s="1">
         <v>0.20193691703900357</v>
@@ -8444,7 +8444,7 @@
         <v>156.89583333337214</v>
       </c>
       <c r="B402" s="1">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E402" s="1">
         <v>0.20424646503556831</v>
@@ -8464,7 +8464,7 @@
         <v>156.91666666662786</v>
       </c>
       <c r="B403" s="1">
-        <v>43.1</v>
+        <v>46.9</v>
       </c>
       <c r="E403" s="1">
         <v>0.20142168711010372</v>
@@ -8484,7 +8484,7 @@
         <v>156.9375</v>
       </c>
       <c r="B404" s="1">
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E404" s="1">
         <v>0.20155056317994052</v>
@@ -8504,7 +8504,7 @@
         <v>156.95833333337214</v>
       </c>
       <c r="B405" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E405" s="1">
         <v>0.19883448085402761</v>
@@ -8524,7 +8524,7 @@
         <v>156.97916666662786</v>
       </c>
       <c r="B406" s="1">
-        <v>40.700000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="E406" s="1">
         <v>0.19596691492496193</v>
